--- a/DummyTesting.xlsx
+++ b/DummyTesting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-28 11:17:22</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ikan, telur, sapi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['babi']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['bawang putih']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Telur dadar isi bayam, Nasi Goreng Tuna Kencur, Tumis kol telur, Sarden sederhana, Telur Dadar ranjauu🌶 #pr_recookmasakanawalanT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DummyTesting.xlsx
+++ b/DummyTesting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-28 11:23:23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ayam, ikan, tahu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['dummy']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['dummy']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lele rica rica kemangi gampang sekali, Chilli Tuna Puff Kilat Super Yummy 😙, Pecek Bandeng Wong Banten, Tahu donburi :), Chicken geprek sambel ijo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
